--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F1AACE6-B4AD-4AB3-9192-EDD2B851AFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9877B9D-73D8-4A91-B0B8-3252AC5507D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>% Change vs Last Year</t>
+    <t>Value</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>% Change vs Last Year</t>
   </si>
 </sst>
 </file>
@@ -83,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -94,6 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,27 +413,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45626</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="4">
+        <v>45597</v>
+      </c>
+      <c r="B2">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <f>(B2/B14-1)*100</f>
         <v>6.5830721003134807</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45596</v>
+        <v>45566</v>
       </c>
       <c r="B3" s="3">
         <v>16.72</v>
@@ -443,20 +444,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45565</v>
+      <c r="A4" s="4">
+        <v>45536</v>
       </c>
       <c r="B4" s="3">
         <v>16.239999999999998</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C39" si="0">(B4/B16-1)*100</f>
+        <f t="shared" ref="C2:C33" si="0">(B4/B16-1)*100</f>
         <v>0.30883261272389717</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45535</v>
+        <v>45505</v>
       </c>
       <c r="B5" s="3">
         <v>15.76</v>
@@ -467,8 +468,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45504</v>
+      <c r="A6" s="4">
+        <v>45474</v>
       </c>
       <c r="B6" s="3">
         <v>16.37</v>
@@ -480,7 +481,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45473</v>
+        <v>45444</v>
       </c>
       <c r="B7" s="3">
         <v>15.47</v>
@@ -491,8 +492,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45443</v>
+      <c r="A8" s="4">
+        <v>45413</v>
       </c>
       <c r="B8" s="3">
         <v>16.37</v>
@@ -504,7 +505,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45412</v>
+        <v>45383</v>
       </c>
       <c r="B9" s="3">
         <v>16.57</v>
@@ -515,8 +516,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45382</v>
+      <c r="A10" s="4">
+        <v>45352</v>
       </c>
       <c r="B10" s="3">
         <v>16.190000000000001</v>
@@ -527,8 +528,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45351</v>
+      <c r="A11" s="4">
+        <v>45323</v>
       </c>
       <c r="B11" s="3">
         <v>16.190000000000001</v>
@@ -540,7 +541,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45322</v>
+        <v>45292</v>
       </c>
       <c r="B12" s="3">
         <v>15.51</v>
@@ -551,8 +552,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45291</v>
+      <c r="A13" s="4">
+        <v>45261</v>
       </c>
       <c r="B13" s="3">
         <v>16.39</v>
@@ -564,7 +565,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45260</v>
+        <v>45231</v>
       </c>
       <c r="B14" s="3">
         <v>15.95</v>
@@ -575,8 +576,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>45230</v>
+      <c r="A15" s="4">
+        <v>45200</v>
       </c>
       <c r="B15" s="3">
         <v>15.8</v>
@@ -588,7 +589,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45199</v>
+        <v>45170</v>
       </c>
       <c r="B16" s="3">
         <v>16.190000000000001</v>
@@ -599,8 +600,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45169</v>
+      <c r="A17" s="4">
+        <v>45139</v>
       </c>
       <c r="B17" s="3">
         <v>15.91</v>
@@ -612,7 +613,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45138</v>
+        <v>45108</v>
       </c>
       <c r="B18" s="3">
         <v>16.3</v>
@@ -623,8 +624,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>45107</v>
+      <c r="A19" s="4">
+        <v>45078</v>
       </c>
       <c r="B19" s="3">
         <v>16.43</v>
@@ -635,8 +636,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>45077</v>
+      <c r="A20" s="4">
+        <v>45047</v>
       </c>
       <c r="B20" s="3">
         <v>15.95</v>
@@ -648,7 +649,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45046</v>
+        <v>45017</v>
       </c>
       <c r="B21" s="3">
         <v>16.45</v>
@@ -659,8 +660,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>45016</v>
+      <c r="A22" s="4">
+        <v>44986</v>
       </c>
       <c r="B22" s="3">
         <v>15.67</v>
@@ -672,7 +673,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44985</v>
+        <v>44958</v>
       </c>
       <c r="B23" s="3">
         <v>15.43</v>
@@ -683,8 +684,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>44957</v>
+      <c r="A24" s="4">
+        <v>44927</v>
       </c>
       <c r="B24" s="3">
         <v>15.67</v>
@@ -696,7 +697,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44926</v>
+        <v>44896</v>
       </c>
       <c r="B25" s="3">
         <v>13.93</v>
@@ -707,8 +708,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>44895</v>
+      <c r="A26" s="4">
+        <v>44866</v>
       </c>
       <c r="B26" s="3">
         <v>14.73</v>
@@ -720,7 +721,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44865</v>
+        <v>44835</v>
       </c>
       <c r="B27" s="3">
         <v>15.09</v>
@@ -731,8 +732,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>44834</v>
+      <c r="A28" s="4">
+        <v>44805</v>
       </c>
       <c r="B28" s="3">
         <v>14.14</v>
@@ -743,8 +744,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44804</v>
+      <c r="A29" s="4">
+        <v>44774</v>
       </c>
       <c r="B29" s="3">
         <v>14.01</v>
@@ -756,7 +757,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44773</v>
+        <v>44743</v>
       </c>
       <c r="B30" s="3">
         <v>13.97</v>
@@ -767,8 +768,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>44742</v>
+      <c r="A31" s="4">
+        <v>44713</v>
       </c>
       <c r="B31" s="3">
         <v>13.75</v>
@@ -780,7 +781,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44712</v>
+        <v>44682</v>
       </c>
       <c r="B32" s="3">
         <v>13.4</v>
@@ -791,8 +792,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>44681</v>
+      <c r="A33" s="4">
+        <v>44652</v>
       </c>
       <c r="B33" s="3">
         <v>14.49</v>
@@ -804,170 +805,218 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44651</v>
+        <v>44621</v>
       </c>
       <c r="B34" s="3">
         <v>14.05</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C34:C65" si="1">(B34/B46-1)*100</f>
         <v>-22.88693743139406</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>44620</v>
+      <c r="A35" s="4">
+        <v>44593</v>
       </c>
       <c r="B35" s="3">
         <v>14.11</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-12.414649286157664</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44592</v>
+        <v>44562</v>
       </c>
       <c r="B36" s="3">
         <v>14.8</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14.598961338718974</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>44561</v>
+      <c r="A37" s="4">
+        <v>44531</v>
       </c>
       <c r="B37" s="3">
         <v>13.24</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-21.795629060838749</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>44530</v>
+      <c r="A38" s="4">
+        <v>44501</v>
       </c>
       <c r="B38" s="3">
         <v>13.55</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-17.82898726500909</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44500</v>
+        <v>44470</v>
       </c>
       <c r="B39" s="3">
         <v>13.25</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22.423887587822012</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>44469</v>
+      <c r="A40" s="4">
+        <v>44440</v>
       </c>
       <c r="B40" s="3">
         <v>12.75</v>
       </c>
+      <c r="C40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44439</v>
+        <v>44409</v>
       </c>
       <c r="B41" s="3">
         <v>13.75</v>
       </c>
+      <c r="C41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>44408</v>
+      <c r="A42" s="4">
+        <v>44378</v>
       </c>
       <c r="B42" s="3">
         <v>15.07</v>
       </c>
+      <c r="C42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44377</v>
+        <v>44348</v>
       </c>
       <c r="B43" s="3">
         <v>15.76</v>
       </c>
+      <c r="C43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>44347</v>
+      <c r="A44" s="4">
+        <v>44317</v>
       </c>
       <c r="B44" s="3">
         <v>17.18</v>
       </c>
+      <c r="C44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44316</v>
+        <v>44287</v>
       </c>
       <c r="B45" s="3">
         <v>18.66</v>
       </c>
+      <c r="C45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>44286</v>
+      <c r="A46" s="4">
+        <v>44256</v>
       </c>
       <c r="B46" s="3">
         <v>18.22</v>
       </c>
+      <c r="C46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44255</v>
+      <c r="A47" s="4">
+        <v>44228</v>
       </c>
       <c r="B47" s="3">
         <v>16.11</v>
       </c>
+      <c r="C47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44227</v>
+        <v>44197</v>
       </c>
       <c r="B48" s="3">
         <v>17.329999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>44196</v>
+      <c r="C48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44166</v>
       </c>
       <c r="B49" s="3">
         <v>16.93</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44165</v>
+        <v>44136</v>
       </c>
       <c r="B50" s="3">
         <v>16.489999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>44135</v>
+      <c r="C50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>44105</v>
       </c>
       <c r="B51" s="3">
         <v>17.079999999999998</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,23 +461,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>17.22</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B3" t="n">
-        <v>17</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -485,23 +487,23 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B5" s="3" t="n">
         <v>16.72</v>
-      </c>
-      <c r="C4" s="1">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>16.24</v>
       </c>
       <c r="C5" s="1">
         <f>(B5/B17-1)*100</f>
@@ -509,11 +511,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45505</v>
+      <c r="A6" s="4" t="n">
+        <v>45536</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>15.76</v>
+        <v>16.24</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B18-1)*100</f>
@@ -521,11 +523,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45474</v>
+      <c r="A7" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>16.37</v>
+        <v>15.76</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B19-1)*100</f>
@@ -533,11 +535,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45444</v>
+      <c r="A8" s="4" t="n">
+        <v>45474</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>15.47</v>
+        <v>16.37</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B20-1)*100</f>
@@ -545,11 +547,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45413</v>
+      <c r="A9" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>16.37</v>
+        <v>15.47</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -557,11 +559,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45383</v>
+      <c r="A10" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>16.57</v>
+        <v>16.37</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -569,11 +571,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45352</v>
+      <c r="A11" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>16.19</v>
+        <v>16.57</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -582,7 +584,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>16.19</v>
@@ -593,11 +595,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45292</v>
+      <c r="A13" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>15.51</v>
+        <v>16.19</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -605,11 +607,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45261</v>
+      <c r="A14" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>16.39</v>
+        <v>15.51</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -617,11 +619,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45231</v>
+      <c r="A15" s="4" t="n">
+        <v>45261</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>15.95</v>
+        <v>16.39</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -629,11 +631,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45200</v>
+      <c r="A16" s="2" t="n">
+        <v>45231</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>15.8</v>
+        <v>15.95</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -641,11 +643,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45170</v>
+      <c r="A17" s="4" t="n">
+        <v>45200</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>16.19</v>
+        <v>15.8</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -653,11 +655,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45139</v>
+      <c r="A18" s="2" t="n">
+        <v>45170</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>15.91</v>
+        <v>16.19</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -665,11 +667,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45108</v>
+      <c r="A19" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>16.3</v>
+        <v>15.91</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -677,11 +679,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45078</v>
+      <c r="A20" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>16.43</v>
+        <v>16.3</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -690,10 +692,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>15.95</v>
+        <v>16.43</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -701,11 +703,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45017</v>
+      <c r="A22" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>16.45</v>
+        <v>15.95</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -713,11 +715,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>44986</v>
+      <c r="A23" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>15.67</v>
+        <v>16.45</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -725,11 +727,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>44958</v>
+      <c r="A24" s="4" t="n">
+        <v>44986</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>15.43</v>
+        <v>15.67</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -737,11 +739,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>44927</v>
+      <c r="A25" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>15.67</v>
+        <v>15.43</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -749,11 +751,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44896</v>
+      <c r="A26" s="4" t="n">
+        <v>44927</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>13.93</v>
+        <v>15.67</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -761,11 +763,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>44866</v>
+      <c r="A27" s="2" t="n">
+        <v>44896</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>14.73</v>
+        <v>13.93</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -773,11 +775,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44835</v>
+      <c r="A28" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>15.09</v>
+        <v>14.73</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -785,11 +787,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>44805</v>
+      <c r="A29" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>14.14</v>
+        <v>15.09</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>14.01</v>
+        <v>14.14</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -809,11 +811,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44743</v>
+      <c r="A31" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>13.97</v>
+        <v>14.01</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -821,11 +823,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>44713</v>
+      <c r="A32" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>13.75</v>
+        <v>13.97</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -833,11 +835,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44682</v>
+      <c r="A33" s="4" t="n">
+        <v>44713</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>13.4</v>
+        <v>13.75</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -845,11 +847,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>44652</v>
+      <c r="A34" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>14.49</v>
+        <v>13.4</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -857,11 +859,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44621</v>
+      <c r="A35" s="4" t="n">
+        <v>44652</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>14.05</v>
+        <v>14.49</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -869,11 +871,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>44593</v>
+      <c r="A36" s="2" t="n">
+        <v>44621</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>14.11</v>
+        <v>14.05</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -881,11 +883,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44562</v>
+      <c r="A37" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>14.8</v>
+        <v>14.11</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -893,11 +895,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>44531</v>
+      <c r="A38" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>13.24</v>
+        <v>14.8</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>13.55</v>
+        <v>13.24</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -917,11 +919,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44470</v>
+      <c r="A40" s="4" t="n">
+        <v>44501</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>13.25</v>
+        <v>13.55</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -929,23 +931,23 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C41" s="1">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B42" s="3" t="n">
         <v>12.75</v>
-      </c>
-      <c r="C41">
-        <f>(B41/B53-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>13.75</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -953,11 +955,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>44378</v>
+      <c r="A43" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>15.07</v>
+        <v>13.75</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -965,11 +967,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44348</v>
+      <c r="A44" s="4" t="n">
+        <v>44378</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>15.76</v>
+        <v>15.07</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -977,11 +979,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>44317</v>
+      <c r="A45" s="2" t="n">
+        <v>44348</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>17.18</v>
+        <v>15.76</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -989,11 +991,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44287</v>
+      <c r="A46" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>18.66</v>
+        <v>17.18</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1001,11 +1003,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>44256</v>
+      <c r="A47" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>18.22</v>
+        <v>18.66</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>16.11</v>
+        <v>18.22</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1025,11 +1027,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44197</v>
+      <c r="A49" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>17.33</v>
+        <v>16.11</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1037,11 +1039,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>44166</v>
+      <c r="A50" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>16.93</v>
+        <v>17.33</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1049,11 +1051,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44136</v>
+      <c r="A51" s="4" t="n">
+        <v>44166</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>16.49</v>
+        <v>16.93</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1061,14 +1063,26 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>44105</v>
+      <c r="A52" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>17.08</v>
+        <v>16.49</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.14</v>
+        <v>16.46</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,23 +475,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>17.22</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B4" t="n">
-        <v>17</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -499,23 +501,23 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B6" s="3" t="n">
         <v>16.72</v>
-      </c>
-      <c r="C5" s="1">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>16.24</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B18-1)*100</f>
@@ -523,11 +525,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45505</v>
+      <c r="A7" s="4" t="n">
+        <v>45536</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>15.76</v>
+        <v>16.24</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B19-1)*100</f>
@@ -535,11 +537,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45474</v>
+      <c r="A8" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>16.37</v>
+        <v>15.76</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B20-1)*100</f>
@@ -547,11 +549,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45444</v>
+      <c r="A9" s="4" t="n">
+        <v>45474</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>15.47</v>
+        <v>16.37</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -559,11 +561,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45413</v>
+      <c r="A10" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>16.37</v>
+        <v>15.47</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -571,11 +573,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45383</v>
+      <c r="A11" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>16.57</v>
+        <v>16.37</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -583,11 +585,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45352</v>
+      <c r="A12" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>16.19</v>
+        <v>16.57</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -596,7 +598,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>16.19</v>
@@ -607,11 +609,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45292</v>
+      <c r="A14" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>15.51</v>
+        <v>16.19</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -619,11 +621,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45261</v>
+      <c r="A15" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>16.39</v>
+        <v>15.51</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -631,11 +633,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45231</v>
+      <c r="A16" s="4" t="n">
+        <v>45261</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>15.95</v>
+        <v>16.39</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -643,11 +645,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45200</v>
+      <c r="A17" s="2" t="n">
+        <v>45231</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>15.8</v>
+        <v>15.95</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -655,11 +657,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45170</v>
+      <c r="A18" s="4" t="n">
+        <v>45200</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>16.19</v>
+        <v>15.8</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -667,11 +669,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45139</v>
+      <c r="A19" s="2" t="n">
+        <v>45170</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>15.91</v>
+        <v>16.19</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -679,11 +681,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45108</v>
+      <c r="A20" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>16.3</v>
+        <v>15.91</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -691,11 +693,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>45078</v>
+      <c r="A21" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>16.43</v>
+        <v>16.3</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -704,10 +706,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>15.95</v>
+        <v>16.43</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -715,11 +717,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45017</v>
+      <c r="A23" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>16.45</v>
+        <v>15.95</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -727,11 +729,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>44986</v>
+      <c r="A24" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>15.67</v>
+        <v>16.45</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -739,11 +741,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44958</v>
+      <c r="A25" s="4" t="n">
+        <v>44986</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>15.43</v>
+        <v>15.67</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -751,11 +753,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>44927</v>
+      <c r="A26" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>15.67</v>
+        <v>15.43</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -763,11 +765,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44896</v>
+      <c r="A27" s="4" t="n">
+        <v>44927</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>13.93</v>
+        <v>15.67</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -775,11 +777,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>44866</v>
+      <c r="A28" s="2" t="n">
+        <v>44896</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>14.73</v>
+        <v>13.93</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -787,11 +789,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44835</v>
+      <c r="A29" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>15.09</v>
+        <v>14.73</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -799,11 +801,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>44805</v>
+      <c r="A30" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>14.14</v>
+        <v>15.09</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -812,10 +814,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>14.01</v>
+        <v>14.14</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -823,11 +825,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44743</v>
+      <c r="A32" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>13.97</v>
+        <v>14.01</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -835,11 +837,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>44713</v>
+      <c r="A33" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>13.75</v>
+        <v>13.97</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -847,11 +849,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44682</v>
+      <c r="A34" s="4" t="n">
+        <v>44713</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>13.4</v>
+        <v>13.75</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -859,11 +861,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>44652</v>
+      <c r="A35" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>14.49</v>
+        <v>13.4</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -871,11 +873,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44621</v>
+      <c r="A36" s="4" t="n">
+        <v>44652</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>14.05</v>
+        <v>14.49</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -883,11 +885,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>44593</v>
+      <c r="A37" s="2" t="n">
+        <v>44621</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>14.11</v>
+        <v>14.05</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -895,11 +897,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44562</v>
+      <c r="A38" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>14.8</v>
+        <v>14.11</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -907,11 +909,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>44531</v>
+      <c r="A39" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>13.24</v>
+        <v>14.8</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -920,10 +922,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>13.55</v>
+        <v>13.24</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -931,11 +933,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44470</v>
+      <c r="A41" s="4" t="n">
+        <v>44501</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>13.25</v>
+        <v>13.55</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -943,23 +945,23 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C42" s="1">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B43" s="3" t="n">
         <v>12.75</v>
-      </c>
-      <c r="C42">
-        <f>(B42/B54-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>13.75</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -967,11 +969,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>44378</v>
+      <c r="A44" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>15.07</v>
+        <v>13.75</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -979,11 +981,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44348</v>
+      <c r="A45" s="4" t="n">
+        <v>44378</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>15.76</v>
+        <v>15.07</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -991,11 +993,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>44317</v>
+      <c r="A46" s="2" t="n">
+        <v>44348</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>17.18</v>
+        <v>15.76</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1003,11 +1005,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44287</v>
+      <c r="A47" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>18.66</v>
+        <v>17.18</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1015,11 +1017,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>44256</v>
+      <c r="A48" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>18.22</v>
+        <v>18.66</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>16.11</v>
+        <v>18.22</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1039,11 +1041,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44197</v>
+      <c r="A50" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>17.33</v>
+        <v>16.11</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1051,11 +1053,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>44166</v>
+      <c r="A51" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>16.93</v>
+        <v>17.33</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1063,11 +1065,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44136</v>
+      <c r="A52" s="4" t="n">
+        <v>44166</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>16.49</v>
+        <v>16.93</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1075,14 +1077,26 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>44105</v>
+      <c r="A53" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>17.08</v>
+        <v>16.49</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="C54">
+        <f>(B54/B66-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.46</v>
+        <v>18.17</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.14</v>
+        <v>16.46</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,23 +489,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>17.22</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B5" t="n">
-        <v>17</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -513,23 +515,23 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B7" s="3" t="n">
         <v>16.72</v>
-      </c>
-      <c r="C6" s="1">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>16.24</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B19-1)*100</f>
@@ -537,11 +539,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45505</v>
+      <c r="A8" s="4" t="n">
+        <v>45536</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>15.76</v>
+        <v>16.24</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B20-1)*100</f>
@@ -549,11 +551,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45474</v>
+      <c r="A9" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>16.37</v>
+        <v>15.76</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -561,11 +563,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45444</v>
+      <c r="A10" s="4" t="n">
+        <v>45474</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>15.47</v>
+        <v>16.37</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -573,11 +575,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45413</v>
+      <c r="A11" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>16.37</v>
+        <v>15.47</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -585,11 +587,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45383</v>
+      <c r="A12" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>16.57</v>
+        <v>16.37</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -597,11 +599,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>45352</v>
+      <c r="A13" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>16.19</v>
+        <v>16.57</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -610,7 +612,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>16.19</v>
@@ -621,11 +623,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45292</v>
+      <c r="A15" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>15.51</v>
+        <v>16.19</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -633,11 +635,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45261</v>
+      <c r="A16" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>16.39</v>
+        <v>15.51</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -645,11 +647,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45231</v>
+      <c r="A17" s="4" t="n">
+        <v>45261</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>15.95</v>
+        <v>16.39</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -657,11 +659,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45200</v>
+      <c r="A18" s="2" t="n">
+        <v>45231</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>15.8</v>
+        <v>15.95</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -669,11 +671,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45170</v>
+      <c r="A19" s="4" t="n">
+        <v>45200</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>16.19</v>
+        <v>15.8</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -681,11 +683,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45139</v>
+      <c r="A20" s="2" t="n">
+        <v>45170</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>15.91</v>
+        <v>16.19</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -693,11 +695,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45108</v>
+      <c r="A21" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>16.3</v>
+        <v>15.91</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -705,11 +707,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>45078</v>
+      <c r="A22" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>16.43</v>
+        <v>16.3</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -718,10 +720,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>15.95</v>
+        <v>16.43</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -729,11 +731,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45017</v>
+      <c r="A24" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>16.45</v>
+        <v>15.95</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -741,11 +743,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>44986</v>
+      <c r="A25" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>15.67</v>
+        <v>16.45</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -753,11 +755,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44958</v>
+      <c r="A26" s="4" t="n">
+        <v>44986</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>15.43</v>
+        <v>15.67</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -765,11 +767,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>44927</v>
+      <c r="A27" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>15.67</v>
+        <v>15.43</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -777,11 +779,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44896</v>
+      <c r="A28" s="4" t="n">
+        <v>44927</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>13.93</v>
+        <v>15.67</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -789,11 +791,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>44866</v>
+      <c r="A29" s="2" t="n">
+        <v>44896</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>14.73</v>
+        <v>13.93</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -801,11 +803,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44835</v>
+      <c r="A30" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>15.09</v>
+        <v>14.73</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -813,11 +815,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>44805</v>
+      <c r="A31" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>14.14</v>
+        <v>15.09</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -826,10 +828,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>14.01</v>
+        <v>14.14</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -837,11 +839,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44743</v>
+      <c r="A33" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>13.97</v>
+        <v>14.01</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -849,11 +851,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>44713</v>
+      <c r="A34" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>13.75</v>
+        <v>13.97</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -861,11 +863,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44682</v>
+      <c r="A35" s="4" t="n">
+        <v>44713</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>13.4</v>
+        <v>13.75</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -873,11 +875,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>44652</v>
+      <c r="A36" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>14.49</v>
+        <v>13.4</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -885,11 +887,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44621</v>
+      <c r="A37" s="4" t="n">
+        <v>44652</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>14.05</v>
+        <v>14.49</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -897,11 +899,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>44593</v>
+      <c r="A38" s="2" t="n">
+        <v>44621</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>14.11</v>
+        <v>14.05</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -909,11 +911,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44562</v>
+      <c r="A39" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>14.8</v>
+        <v>14.11</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -921,11 +923,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>44531</v>
+      <c r="A40" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>13.24</v>
+        <v>14.8</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -934,10 +936,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>13.55</v>
+        <v>13.24</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -945,11 +947,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44470</v>
+      <c r="A42" s="4" t="n">
+        <v>44501</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>13.25</v>
+        <v>13.55</v>
       </c>
       <c r="C42" s="1">
         <f>(B42/B54-1)*100</f>
@@ -957,23 +959,23 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C43" s="1">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B44" s="3" t="n">
         <v>12.75</v>
-      </c>
-      <c r="C43">
-        <f>(B43/B55-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>13.75</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -981,11 +983,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>44378</v>
+      <c r="A45" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>15.07</v>
+        <v>13.75</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -993,11 +995,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44348</v>
+      <c r="A46" s="4" t="n">
+        <v>44378</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>15.76</v>
+        <v>15.07</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1005,11 +1007,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>44317</v>
+      <c r="A47" s="2" t="n">
+        <v>44348</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>17.18</v>
+        <v>15.76</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1017,11 +1019,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44287</v>
+      <c r="A48" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>18.66</v>
+        <v>17.18</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1029,11 +1031,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>44256</v>
+      <c r="A49" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>18.22</v>
+        <v>18.66</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>16.11</v>
+        <v>18.22</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1053,11 +1055,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44197</v>
+      <c r="A51" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>17.33</v>
+        <v>16.11</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1065,11 +1067,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>44166</v>
+      <c r="A52" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>16.93</v>
+        <v>17.33</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1077,11 +1079,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44136</v>
+      <c r="A53" s="4" t="n">
+        <v>44166</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>16.49</v>
+        <v>16.93</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1089,14 +1091,26 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>44105</v>
+      <c r="A54" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>17.08</v>
+        <v>16.49</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="C55">
+        <f>(B55/B67-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.17</v>
+        <v>17.78</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.46</v>
+        <v>18.17</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,11 +489,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.14</v>
+        <v>16.46</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -503,23 +503,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>17.22</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B6" t="n">
-        <v>17</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -527,23 +529,23 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B8" s="3" t="n">
         <v>16.72</v>
-      </c>
-      <c r="C7" s="1">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>16.24</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B20-1)*100</f>
@@ -551,11 +553,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45505</v>
+      <c r="A9" s="4" t="n">
+        <v>45536</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>15.76</v>
+        <v>16.24</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -563,11 +565,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45474</v>
+      <c r="A10" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>16.37</v>
+        <v>15.76</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -575,11 +577,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45444</v>
+      <c r="A11" s="4" t="n">
+        <v>45474</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>15.47</v>
+        <v>16.37</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -587,11 +589,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45413</v>
+      <c r="A12" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>16.37</v>
+        <v>15.47</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -599,11 +601,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45383</v>
+      <c r="A13" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>16.57</v>
+        <v>16.37</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -611,11 +613,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45352</v>
+      <c r="A14" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>16.19</v>
+        <v>16.57</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -624,7 +626,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>16.19</v>
@@ -635,11 +637,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45292</v>
+      <c r="A16" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>15.51</v>
+        <v>16.19</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -647,11 +649,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45261</v>
+      <c r="A17" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>16.39</v>
+        <v>15.51</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -659,11 +661,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45231</v>
+      <c r="A18" s="4" t="n">
+        <v>45261</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>15.95</v>
+        <v>16.39</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -671,11 +673,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45200</v>
+      <c r="A19" s="2" t="n">
+        <v>45231</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>15.8</v>
+        <v>15.95</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -683,11 +685,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45170</v>
+      <c r="A20" s="4" t="n">
+        <v>45200</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>16.19</v>
+        <v>15.8</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -695,11 +697,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>45139</v>
+      <c r="A21" s="2" t="n">
+        <v>45170</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>15.91</v>
+        <v>16.19</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -707,11 +709,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45108</v>
+      <c r="A22" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>16.3</v>
+        <v>15.91</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -719,11 +721,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>45078</v>
+      <c r="A23" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>16.43</v>
+        <v>16.3</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -732,10 +734,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>15.95</v>
+        <v>16.43</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -743,11 +745,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45017</v>
+      <c r="A25" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>16.45</v>
+        <v>15.95</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -755,11 +757,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>44986</v>
+      <c r="A26" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>15.67</v>
+        <v>16.45</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -767,11 +769,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44958</v>
+      <c r="A27" s="4" t="n">
+        <v>44986</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>15.43</v>
+        <v>15.67</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -779,11 +781,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>44927</v>
+      <c r="A28" s="2" t="n">
+        <v>44958</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>15.67</v>
+        <v>15.43</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -791,11 +793,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44896</v>
+      <c r="A29" s="4" t="n">
+        <v>44927</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>13.93</v>
+        <v>15.67</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -803,11 +805,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>44866</v>
+      <c r="A30" s="2" t="n">
+        <v>44896</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>14.73</v>
+        <v>13.93</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -815,11 +817,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44835</v>
+      <c r="A31" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>15.09</v>
+        <v>14.73</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -827,11 +829,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>44805</v>
+      <c r="A32" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>14.14</v>
+        <v>15.09</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -840,10 +842,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>14.01</v>
+        <v>14.14</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -851,11 +853,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44743</v>
+      <c r="A34" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>13.97</v>
+        <v>14.01</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -863,11 +865,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>44713</v>
+      <c r="A35" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>13.75</v>
+        <v>13.97</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -875,11 +877,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44682</v>
+      <c r="A36" s="4" t="n">
+        <v>44713</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>13.4</v>
+        <v>13.75</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -887,11 +889,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>44652</v>
+      <c r="A37" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>14.49</v>
+        <v>13.4</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -899,11 +901,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44621</v>
+      <c r="A38" s="4" t="n">
+        <v>44652</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>14.05</v>
+        <v>14.49</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -911,11 +913,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>44593</v>
+      <c r="A39" s="2" t="n">
+        <v>44621</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>14.11</v>
+        <v>14.05</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -923,11 +925,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44562</v>
+      <c r="A40" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>14.8</v>
+        <v>14.11</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -935,11 +937,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>44531</v>
+      <c r="A41" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>13.24</v>
+        <v>14.8</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -948,10 +950,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>13.55</v>
+        <v>13.24</v>
       </c>
       <c r="C42" s="1">
         <f>(B42/B54-1)*100</f>
@@ -959,11 +961,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44470</v>
+      <c r="A43" s="4" t="n">
+        <v>44501</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>13.25</v>
+        <v>13.55</v>
       </c>
       <c r="C43" s="1">
         <f>(B43/B55-1)*100</f>
@@ -971,23 +973,23 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C44" s="1">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B45" s="3" t="n">
         <v>12.75</v>
-      </c>
-      <c r="C44">
-        <f>(B44/B56-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>13.75</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -995,11 +997,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>44378</v>
+      <c r="A46" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>15.07</v>
+        <v>13.75</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1007,11 +1009,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44348</v>
+      <c r="A47" s="4" t="n">
+        <v>44378</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>15.76</v>
+        <v>15.07</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1019,11 +1021,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>44317</v>
+      <c r="A48" s="2" t="n">
+        <v>44348</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>17.18</v>
+        <v>15.76</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1031,11 +1033,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44287</v>
+      <c r="A49" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>18.66</v>
+        <v>17.18</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1043,11 +1045,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>44256</v>
+      <c r="A50" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>18.22</v>
+        <v>18.66</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1056,10 +1058,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>16.11</v>
+        <v>18.22</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1067,11 +1069,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44197</v>
+      <c r="A52" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>17.33</v>
+        <v>16.11</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1079,11 +1081,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>44166</v>
+      <c r="A53" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>16.93</v>
+        <v>17.33</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1091,11 +1093,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44136</v>
+      <c r="A54" s="4" t="n">
+        <v>44166</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>16.49</v>
+        <v>16.93</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1103,14 +1105,26 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>44105</v>
+      <c r="A55" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>17.08</v>
+        <v>16.49</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="C56">
+        <f>(B56/B68-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,672 +461,606 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
+        <v>16.09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
+        <v>17.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
+        <v>18.17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
+        <v>16.46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>17.22</v>
       </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="C7" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>17</v>
       </c>
-      <c r="C7">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="C8" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B9" s="3" t="n">
         <v>16.72</v>
       </c>
-      <c r="C8" s="1">
-        <f>(B8/B20-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="C9" s="1" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
         <v>45536</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="3" t="n">
         <v>16.24</v>
       </c>
-      <c r="C9" s="1">
-        <f>(B9/B21-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="C10" s="1" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B11" s="3" t="n">
         <v>15.76</v>
       </c>
-      <c r="C10" s="1">
-        <f>(B10/B22-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="C11" s="1" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
         <v>45474</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B12" s="3" t="n">
         <v>16.37</v>
       </c>
-      <c r="C11" s="1">
-        <f>(B11/B23-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="C12" s="1" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>15.47</v>
       </c>
-      <c r="C12" s="1">
-        <f>(B12/B24-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="C13" s="1" t="n">
+        <v>-5.84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
         <v>45413</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B14" s="3" t="n">
         <v>16.37</v>
       </c>
-      <c r="C13" s="1">
-        <f>(B13/B25-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="C14" s="1" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B15" s="3" t="n">
         <v>16.57</v>
       </c>
-      <c r="C14" s="1">
-        <f>(B14/B26-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C15" s="1">
-        <f>(B15/B27-1)*100</f>
-        <v/>
+      <c r="C15" s="1" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>16.19</v>
       </c>
-      <c r="C16" s="1">
-        <f>(B16/B28-1)*100</f>
-        <v/>
+      <c r="C16" s="1" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="4" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B18" s="3" t="n">
         <v>15.51</v>
       </c>
-      <c r="C17" s="1">
-        <f>(B17/B29-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="C18" s="1" t="n">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
         <v>45261</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B19" s="3" t="n">
         <v>16.39</v>
       </c>
-      <c r="C18" s="1">
-        <f>(B18/B30-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="C19" s="1" t="n">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B20" s="3" t="n">
         <v>15.95</v>
       </c>
-      <c r="C19" s="1">
-        <f>(B19/B31-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="C20" s="1" t="n">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
         <v>45200</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B21" s="3" t="n">
         <v>15.8</v>
       </c>
-      <c r="C20" s="1">
-        <f>(B20/B32-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="C21" s="1" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B22" s="3" t="n">
         <v>16.19</v>
       </c>
-      <c r="C21" s="1">
-        <f>(B21/B33-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="C22" s="1" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
         <v>45139</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B23" s="3" t="n">
         <v>15.91</v>
       </c>
-      <c r="C22" s="1">
-        <f>(B22/B34-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="C23" s="1" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B24" s="3" t="n">
         <v>16.3</v>
       </c>
-      <c r="C23" s="1">
-        <f>(B23/B35-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="C24" s="1">
-        <f>(B24/B36-1)*100</f>
-        <v/>
+      <c r="C24" s="1" t="n">
+        <v>16.68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>19.49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
         <v>45047</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B26" s="3" t="n">
         <v>15.95</v>
       </c>
-      <c r="C25" s="1">
-        <f>(B25/B37-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="C26" s="1" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B27" s="3" t="n">
         <v>16.45</v>
       </c>
-      <c r="C26" s="1">
-        <f>(B26/B38-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="n">
+      <c r="C27" s="1" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
         <v>44986</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B28" s="3" t="n">
         <v>15.67</v>
       </c>
-      <c r="C27" s="1">
-        <f>(B27/B39-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="C28" s="1" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B29" s="3" t="n">
         <v>15.43</v>
       </c>
-      <c r="C28" s="1">
-        <f>(B28/B40-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n">
+      <c r="C29" s="1" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
         <v>44927</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B30" s="3" t="n">
         <v>15.67</v>
       </c>
-      <c r="C29" s="1">
-        <f>(B29/B41-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="C30" s="1" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B31" s="3" t="n">
         <v>13.93</v>
       </c>
-      <c r="C30" s="1">
-        <f>(B30/B42-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n">
+      <c r="C31" s="1" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B32" s="3" t="n">
         <v>14.73</v>
       </c>
-      <c r="C31" s="1">
-        <f>(B31/B43-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="C32" s="1" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B33" s="3" t="n">
         <v>15.09</v>
       </c>
-      <c r="C32" s="1">
-        <f>(B32/B44-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="C33" s="1">
-        <f>(B33/B45-1)*100</f>
-        <v/>
+      <c r="C33" s="1" t="n">
+        <v>13.89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
         <v>44774</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B35" s="3" t="n">
         <v>14.01</v>
       </c>
-      <c r="C34" s="1">
-        <f>(B34/B46-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="C35" s="1" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B36" s="3" t="n">
         <v>13.97</v>
       </c>
-      <c r="C35" s="1">
-        <f>(B35/B47-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="C36" s="1" t="n">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
         <v>44713</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B37" s="3" t="n">
         <v>13.75</v>
       </c>
-      <c r="C36" s="1">
-        <f>(B36/B48-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="C37" s="1" t="n">
+        <v>-12.75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B38" s="3" t="n">
         <v>13.4</v>
       </c>
-      <c r="C37" s="1">
-        <f>(B37/B49-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="C38" s="1" t="n">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
         <v>44652</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B39" s="3" t="n">
         <v>14.49</v>
       </c>
-      <c r="C38" s="1">
-        <f>(B38/B50-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="C39" s="1" t="n">
+        <v>-22.35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B40" s="3" t="n">
         <v>14.05</v>
       </c>
-      <c r="C39" s="1">
-        <f>(B39/B51-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="C40" s="1" t="n">
+        <v>-22.89</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
         <v>44593</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B41" s="3" t="n">
         <v>14.11</v>
       </c>
-      <c r="C40" s="1">
-        <f>(B40/B52-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="C41" s="1" t="n">
+        <v>-12.41</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B42" s="3" t="n">
         <v>14.8</v>
       </c>
-      <c r="C41" s="1">
-        <f>(B41/B53-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="C42" s="1">
-        <f>(B42/B54-1)*100</f>
-        <v/>
+      <c r="C42" s="1" t="n">
+        <v>-14.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-21.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
         <v>44501</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B44" s="3" t="n">
         <v>13.55</v>
       </c>
-      <c r="C43" s="1">
-        <f>(B43/B55-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="C44" s="1" t="n">
+        <v>-17.83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B45" s="3" t="n">
         <v>13.25</v>
       </c>
-      <c r="C44" s="1">
-        <f>(B44/B56-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="n">
+      <c r="C45" s="1" t="n">
+        <v>-22.42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B46" s="3" t="n">
         <v>12.75</v>
       </c>
-      <c r="C45">
-        <f>(B45/B57-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B47" s="3" t="n">
         <v>13.75</v>
       </c>
-      <c r="C46">
-        <f>(B46/B58-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
         <v>44378</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B48" s="3" t="n">
         <v>15.07</v>
       </c>
-      <c r="C47">
-        <f>(B47/B59-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B49" s="3" t="n">
         <v>15.76</v>
       </c>
-      <c r="C48">
-        <f>(B48/B60-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
         <v>44317</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B50" s="3" t="n">
         <v>17.18</v>
       </c>
-      <c r="C49">
-        <f>(B49/B61-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B51" s="3" t="n">
         <v>18.66</v>
       </c>
-      <c r="C50">
-        <f>(B50/B62-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="C51">
-        <f>(B51/B63-1)*100</f>
-        <v/>
-      </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
         <v>44228</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B53" s="3" t="n">
         <v>16.11</v>
       </c>
-      <c r="C52">
-        <f>(B52/B64-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B54" s="3" t="n">
         <v>17.33</v>
       </c>
-      <c r="C53">
-        <f>(B53/B65-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B55" s="3" t="n">
         <v>16.93</v>
       </c>
-      <c r="C54">
-        <f>(B54/B66-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B56" s="3" t="n">
         <v>16.49</v>
       </c>
-      <c r="C55">
-        <f>(B55/B67-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B57" s="3" t="n">
         <v>17.08</v>
       </c>
-      <c r="C56">
-        <f>(B56/B68-1)*100</f>
-        <v/>
-      </c>
+      <c r="C57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,606 +461,619 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.09</v>
+        <v>15.78</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.78</v>
+        <v>16.09</v>
       </c>
       <c r="C3" t="n">
-        <v>7.3</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.17</v>
+        <v>17.78</v>
       </c>
       <c r="C4" t="n">
-        <v>12.23</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.46</v>
+        <v>18.17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.67</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.14</v>
+        <v>16.46</v>
       </c>
       <c r="C6" t="n">
-        <v>4.06</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>17.22</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5.06</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
+    <row r="9">
+      <c r="A9" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6.58</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="3" t="n">
         <v>16.72</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <v>5.82</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
+    <row r="11">
+      <c r="A11" s="4" t="n">
         <v>45536</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B11" s="3" t="n">
         <v>16.24</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B12" s="3" t="n">
         <v>15.76</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>-0.9399999999999999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
+    <row r="13">
+      <c r="A13" s="4" t="n">
         <v>45474</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>16.37</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B14" s="3" t="n">
         <v>15.47</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>-5.84</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="n">
+    <row r="15">
+      <c r="A15" s="4" t="n">
         <v>45413</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B15" s="3" t="n">
         <v>16.37</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>2.63</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B16" s="3" t="n">
         <v>16.57</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>3.32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>16.19</v>
       </c>
       <c r="C17" s="1" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>4.93</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B19" s="3" t="n">
         <v>15.51</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C19" s="1" t="n">
         <v>-1.02</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="n">
+    <row r="20">
+      <c r="A20" s="4" t="n">
         <v>45261</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B20" s="3" t="n">
         <v>16.39</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C20" s="1" t="n">
         <v>17.66</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B21" s="3" t="n">
         <v>15.95</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>8.279999999999999</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="n">
+    <row r="22">
+      <c r="A22" s="4" t="n">
         <v>45200</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B22" s="3" t="n">
         <v>15.8</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C22" s="1" t="n">
         <v>4.71</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B23" s="3" t="n">
         <v>16.19</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C23" s="1" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="n">
+    <row r="24">
+      <c r="A24" s="4" t="n">
         <v>45139</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B24" s="3" t="n">
         <v>15.91</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C24" s="1" t="n">
         <v>13.56</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B25" s="3" t="n">
         <v>16.3</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>16.68</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>19.49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>19.49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
         <v>45047</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B27" s="3" t="n">
         <v>15.95</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C27" s="1" t="n">
         <v>19.03</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B28" s="3" t="n">
         <v>16.45</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <v>13.53</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="n">
+    <row r="29">
+      <c r="A29" s="4" t="n">
         <v>44986</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B29" s="3" t="n">
         <v>15.67</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C29" s="1" t="n">
         <v>11.53</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B30" s="3" t="n">
         <v>15.43</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C30" s="1" t="n">
         <v>9.359999999999999</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="4" t="n">
+    <row r="31">
+      <c r="A31" s="4" t="n">
         <v>44927</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B31" s="3" t="n">
         <v>15.67</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C31" s="1" t="n">
         <v>5.88</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B32" s="3" t="n">
         <v>13.93</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C32" s="1" t="n">
         <v>5.21</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="4" t="n">
+    <row r="33">
+      <c r="A33" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B33" s="3" t="n">
         <v>14.73</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C33" s="1" t="n">
         <v>8.710000000000001</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B34" s="3" t="n">
         <v>15.09</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C34" s="1" t="n">
         <v>13.89</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>10.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
         <v>44774</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B36" s="3" t="n">
         <v>14.01</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C36" s="1" t="n">
         <v>1.89</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B37" s="3" t="n">
         <v>13.97</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C37" s="1" t="n">
         <v>-7.3</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="n">
+    <row r="38">
+      <c r="A38" s="4" t="n">
         <v>44713</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B38" s="3" t="n">
         <v>13.75</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C38" s="1" t="n">
         <v>-12.75</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B39" s="3" t="n">
         <v>13.4</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C39" s="1" t="n">
         <v>-22</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="n">
+    <row r="40">
+      <c r="A40" s="4" t="n">
         <v>44652</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B40" s="3" t="n">
         <v>14.49</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C40" s="1" t="n">
         <v>-22.35</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B41" s="3" t="n">
         <v>14.05</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C41" s="1" t="n">
         <v>-22.89</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="n">
+    <row r="42">
+      <c r="A42" s="4" t="n">
         <v>44593</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B42" s="3" t="n">
         <v>14.11</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C42" s="1" t="n">
         <v>-12.41</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B43" s="3" t="n">
         <v>14.8</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C43" s="1" t="n">
         <v>-14.6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>-21.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>-21.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
         <v>44501</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B45" s="3" t="n">
         <v>13.55</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C45" s="1" t="n">
         <v>-17.83</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B46" s="3" t="n">
         <v>13.25</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C46" s="1" t="n">
         <v>-22.42</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4" t="n">
+    <row r="47">
+      <c r="A47" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B47" s="3" t="n">
         <v>12.75</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B48" s="3" t="n">
         <v>13.75</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
         <v>44378</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B49" s="3" t="n">
         <v>15.07</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B50" s="3" t="n">
         <v>15.76</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
         <v>44317</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B51" s="3" t="n">
         <v>17.18</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B52" s="3" t="n">
         <v>18.66</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>18.22</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
         <v>44228</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B54" s="3" t="n">
         <v>16.11</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B55" s="3" t="n">
         <v>17.33</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="n">
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B56" s="3" t="n">
         <v>16.93</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B57" s="3" t="n">
         <v>16.49</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="n">
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B58" s="3" t="n">
         <v>17.08</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,619 +461,632 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.78</v>
+        <v>16.87</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.09</v>
+        <v>15.78</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.78</v>
+        <v>16.09</v>
       </c>
       <c r="C4" t="n">
-        <v>7.3</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.17</v>
+        <v>17.78</v>
       </c>
       <c r="C5" t="n">
-        <v>12.23</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.46</v>
+        <v>18.17</v>
       </c>
       <c r="C6" t="n">
-        <v>1.67</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.14</v>
+        <v>16.46</v>
       </c>
       <c r="C7" t="n">
-        <v>4.06</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>17.22</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5.06</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
+    <row r="10">
+      <c r="A10" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6.58</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B11" s="3" t="n">
         <v>16.72</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C11" s="1" t="n">
         <v>5.82</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
+    <row r="12">
+      <c r="A12" s="4" t="n">
         <v>45536</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B12" s="3" t="n">
         <v>16.24</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>15.76</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>-0.9399999999999999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="n">
+    <row r="14">
+      <c r="A14" s="4" t="n">
         <v>45474</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B14" s="3" t="n">
         <v>16.37</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B15" s="3" t="n">
         <v>15.47</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>-5.84</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="n">
+    <row r="16">
+      <c r="A16" s="4" t="n">
         <v>45413</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B16" s="3" t="n">
         <v>16.37</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>2.63</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B17" s="3" t="n">
         <v>16.57</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.73</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>3.32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>16.19</v>
       </c>
       <c r="C18" s="1" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>4.93</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B20" s="3" t="n">
         <v>15.51</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C20" s="1" t="n">
         <v>-1.02</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="n">
+    <row r="21">
+      <c r="A21" s="4" t="n">
         <v>45261</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B21" s="3" t="n">
         <v>16.39</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>17.66</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B22" s="3" t="n">
         <v>15.95</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C22" s="1" t="n">
         <v>8.279999999999999</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="n">
+    <row r="23">
+      <c r="A23" s="4" t="n">
         <v>45200</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B23" s="3" t="n">
         <v>15.8</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C23" s="1" t="n">
         <v>4.71</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B24" s="3" t="n">
         <v>16.19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C24" s="1" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
+    <row r="25">
+      <c r="A25" s="4" t="n">
         <v>45139</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B25" s="3" t="n">
         <v>15.91</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>13.56</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B26" s="3" t="n">
         <v>16.3</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C26" s="1" t="n">
         <v>16.68</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>19.49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>19.49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
         <v>45047</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B28" s="3" t="n">
         <v>15.95</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <v>19.03</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B29" s="3" t="n">
         <v>16.45</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C29" s="1" t="n">
         <v>13.53</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="n">
+    <row r="30">
+      <c r="A30" s="4" t="n">
         <v>44986</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B30" s="3" t="n">
         <v>15.67</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C30" s="1" t="n">
         <v>11.53</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B31" s="3" t="n">
         <v>15.43</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C31" s="1" t="n">
         <v>9.359999999999999</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4" t="n">
+    <row r="32">
+      <c r="A32" s="4" t="n">
         <v>44927</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B32" s="3" t="n">
         <v>15.67</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C32" s="1" t="n">
         <v>5.88</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B33" s="3" t="n">
         <v>13.93</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C33" s="1" t="n">
         <v>5.21</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="n">
+    <row r="34">
+      <c r="A34" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B34" s="3" t="n">
         <v>14.73</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C34" s="1" t="n">
         <v>8.710000000000001</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B35" s="3" t="n">
         <v>15.09</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C35" s="1" t="n">
         <v>13.89</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>10.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
         <v>44774</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B37" s="3" t="n">
         <v>14.01</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C37" s="1" t="n">
         <v>1.89</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B38" s="3" t="n">
         <v>13.97</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C38" s="1" t="n">
         <v>-7.3</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="4" t="n">
+    <row r="39">
+      <c r="A39" s="4" t="n">
         <v>44713</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B39" s="3" t="n">
         <v>13.75</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C39" s="1" t="n">
         <v>-12.75</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B40" s="3" t="n">
         <v>13.4</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C40" s="1" t="n">
         <v>-22</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="n">
+    <row r="41">
+      <c r="A41" s="4" t="n">
         <v>44652</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B41" s="3" t="n">
         <v>14.49</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C41" s="1" t="n">
         <v>-22.35</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B42" s="3" t="n">
         <v>14.05</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C42" s="1" t="n">
         <v>-22.89</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="n">
+    <row r="43">
+      <c r="A43" s="4" t="n">
         <v>44593</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B43" s="3" t="n">
         <v>14.11</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C43" s="1" t="n">
         <v>-12.41</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B44" s="3" t="n">
         <v>14.8</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C44" s="1" t="n">
         <v>-14.6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>-21.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>-21.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
         <v>44501</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B46" s="3" t="n">
         <v>13.55</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C46" s="1" t="n">
         <v>-17.83</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B47" s="3" t="n">
         <v>13.25</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C47" s="1" t="n">
         <v>-22.42</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
+    <row r="48">
+      <c r="A48" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B48" s="3" t="n">
         <v>12.75</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B49" s="3" t="n">
         <v>13.75</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
         <v>44378</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B50" s="3" t="n">
         <v>15.07</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B51" s="3" t="n">
         <v>15.76</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="n">
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
         <v>44317</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B52" s="3" t="n">
         <v>17.18</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B53" s="3" t="n">
         <v>18.66</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>18.22</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
         <v>44228</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B55" s="3" t="n">
         <v>16.11</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B56" s="3" t="n">
         <v>17.33</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B57" s="3" t="n">
         <v>16.93</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B58" s="3" t="n">
         <v>16.49</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B59" s="3" t="n">
         <v>17.08</v>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/vehicle-sales.xlsx
+++ b/data/vehicle-sales.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,632 +461,645 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.87</v>
+        <v>16.49</v>
       </c>
       <c r="C2" t="n">
-        <v>3.05</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.78</v>
+        <v>16.87</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.09</v>
+        <v>15.78</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.78</v>
+        <v>16.09</v>
       </c>
       <c r="C5" t="n">
-        <v>7.3</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.17</v>
+        <v>17.78</v>
       </c>
       <c r="C6" t="n">
-        <v>12.23</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.46</v>
+        <v>18.17</v>
       </c>
       <c r="C7" t="n">
-        <v>1.67</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.14</v>
+        <v>16.46</v>
       </c>
       <c r="C8" t="n">
-        <v>4.06</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>17.22</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5.06</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
+    <row r="11">
+      <c r="A11" s="4" t="n">
         <v>45597</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>17</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>6.58</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B12" s="3" t="n">
         <v>16.72</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>5.82</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
+    <row r="13">
+      <c r="A13" s="4" t="n">
         <v>45536</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>16.24</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B14" s="3" t="n">
         <v>15.76</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>-0.9399999999999999</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="n">
+    <row r="15">
+      <c r="A15" s="4" t="n">
         <v>45474</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B15" s="3" t="n">
         <v>16.37</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.43</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B16" s="3" t="n">
         <v>15.47</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>-5.84</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="n">
+    <row r="17">
+      <c r="A17" s="4" t="n">
         <v>45413</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B17" s="3" t="n">
         <v>16.37</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <v>2.63</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B18" s="3" t="n">
         <v>16.57</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>3.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>16.19</v>
       </c>
       <c r="C19" s="1" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>4.93</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B21" s="3" t="n">
         <v>15.51</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>-1.02</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="n">
+    <row r="22">
+      <c r="A22" s="4" t="n">
         <v>45261</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B22" s="3" t="n">
         <v>16.39</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C22" s="1" t="n">
         <v>17.66</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B23" s="3" t="n">
         <v>15.95</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C23" s="1" t="n">
         <v>8.279999999999999</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="n">
+    <row r="24">
+      <c r="A24" s="4" t="n">
         <v>45200</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B24" s="3" t="n">
         <v>15.8</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C24" s="1" t="n">
         <v>4.71</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B25" s="3" t="n">
         <v>16.19</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="n">
+    <row r="26">
+      <c r="A26" s="4" t="n">
         <v>45139</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B26" s="3" t="n">
         <v>15.91</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C26" s="1" t="n">
         <v>13.56</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B27" s="3" t="n">
         <v>16.3</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C27" s="1" t="n">
         <v>16.68</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>19.49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>19.49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
         <v>45047</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B29" s="3" t="n">
         <v>15.95</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C29" s="1" t="n">
         <v>19.03</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B30" s="3" t="n">
         <v>16.45</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C30" s="1" t="n">
         <v>13.53</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="4" t="n">
+    <row r="31">
+      <c r="A31" s="4" t="n">
         <v>44986</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B31" s="3" t="n">
         <v>15.67</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C31" s="1" t="n">
         <v>11.53</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B32" s="3" t="n">
         <v>15.43</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C32" s="1" t="n">
         <v>9.359999999999999</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="4" t="n">
+    <row r="33">
+      <c r="A33" s="4" t="n">
         <v>44927</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B33" s="3" t="n">
         <v>15.67</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C33" s="1" t="n">
         <v>5.88</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B34" s="3" t="n">
         <v>13.93</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C34" s="1" t="n">
         <v>5.21</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="4" t="n">
+    <row r="35">
+      <c r="A35" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B35" s="3" t="n">
         <v>14.73</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C35" s="1" t="n">
         <v>8.710000000000001</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B36" s="3" t="n">
         <v>15.09</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C36" s="1" t="n">
         <v>13.89</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>10.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
         <v>44774</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B38" s="3" t="n">
         <v>14.01</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C38" s="1" t="n">
         <v>1.89</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B39" s="3" t="n">
         <v>13.97</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C39" s="1" t="n">
         <v>-7.3</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="n">
+    <row r="40">
+      <c r="A40" s="4" t="n">
         <v>44713</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B40" s="3" t="n">
         <v>13.75</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C40" s="1" t="n">
         <v>-12.75</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B41" s="3" t="n">
         <v>13.4</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C41" s="1" t="n">
         <v>-22</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="n">
+    <row r="42">
+      <c r="A42" s="4" t="n">
         <v>44652</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B42" s="3" t="n">
         <v>14.49</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C42" s="1" t="n">
         <v>-22.35</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B43" s="3" t="n">
         <v>14.05</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C43" s="1" t="n">
         <v>-22.89</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="4" t="n">
+    <row r="44">
+      <c r="A44" s="4" t="n">
         <v>44593</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B44" s="3" t="n">
         <v>14.11</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C44" s="1" t="n">
         <v>-12.41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B45" s="3" t="n">
         <v>14.8</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C45" s="1" t="n">
         <v>-14.6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>-21.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>-21.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
         <v>44501</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B47" s="3" t="n">
         <v>13.55</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C47" s="1" t="n">
         <v>-17.83</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B48" s="3" t="n">
         <v>13.25</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C48" s="1" t="n">
         <v>-22.42</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="4" t="n">
+    <row r="49">
+      <c r="A49" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B49" s="3" t="n">
         <v>12.75</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B50" s="3" t="n">
         <v>13.75</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
         <v>44378</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B51" s="3" t="n">
         <v>15.07</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B52" s="3" t="n">
         <v>15.76</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
         <v>44317</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B53" s="3" t="n">
         <v>17.18</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B54" s="3" t="n">
         <v>18.66</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>18.22</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
         <v>44228</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B56" s="3" t="n">
         <v>16.11</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B57" s="3" t="n">
         <v>17.33</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="n">
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B58" s="3" t="n">
         <v>16.93</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B59" s="3" t="n">
         <v>16.49</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="n">
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B60" s="3" t="n">
         <v>17.08</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
